--- a/Code/Results/Cases/Case_5_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_154/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9982512649073094</v>
+        <v>1.03055029072378</v>
       </c>
       <c r="D2">
-        <v>1.020801057808652</v>
+        <v>1.039582631608319</v>
       </c>
       <c r="E2">
-        <v>1.004885172497494</v>
+        <v>1.030233735645875</v>
       </c>
       <c r="F2">
-        <v>1.024778747316787</v>
+        <v>1.048059835917407</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044204920708889</v>
+        <v>1.034988157074656</v>
       </c>
       <c r="J2">
-        <v>1.020484406442658</v>
+        <v>1.035690915942963</v>
       </c>
       <c r="K2">
-        <v>1.031978011883522</v>
+        <v>1.04236740876327</v>
       </c>
       <c r="L2">
-        <v>1.016276866087148</v>
+        <v>1.033045339321515</v>
       </c>
       <c r="M2">
-        <v>1.035903339644771</v>
+        <v>1.050820736706897</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.002826530634982</v>
+        <v>1.031525713853264</v>
       </c>
       <c r="D3">
-        <v>1.024234309476353</v>
+        <v>1.040334047593937</v>
       </c>
       <c r="E3">
-        <v>1.008542944698348</v>
+        <v>1.031063231416374</v>
       </c>
       <c r="F3">
-        <v>1.028727843380045</v>
+        <v>1.04894409824415</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045282148964179</v>
+        <v>1.035156002880944</v>
       </c>
       <c r="J3">
-        <v>1.023240437034857</v>
+        <v>1.036307707967147</v>
       </c>
       <c r="K3">
-        <v>1.034566220639085</v>
+        <v>1.042929228036171</v>
       </c>
       <c r="L3">
-        <v>1.019067671552789</v>
+        <v>1.033683090194355</v>
       </c>
       <c r="M3">
-        <v>1.039005881592479</v>
+        <v>1.05151678109444</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005727938717874</v>
+        <v>1.032157419879803</v>
       </c>
       <c r="D4">
-        <v>1.026413742342642</v>
+        <v>1.040820539874346</v>
       </c>
       <c r="E4">
-        <v>1.010868700121684</v>
+        <v>1.031600807132731</v>
       </c>
       <c r="F4">
-        <v>1.03123640774097</v>
+        <v>1.049516877315329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04595500765182</v>
+        <v>1.035263397277794</v>
       </c>
       <c r="J4">
-        <v>1.024986249529967</v>
+        <v>1.036706761791015</v>
       </c>
       <c r="K4">
-        <v>1.036203495410791</v>
+        <v>1.043292374736066</v>
       </c>
       <c r="L4">
-        <v>1.020837695718456</v>
+        <v>1.034095948083048</v>
       </c>
       <c r="M4">
-        <v>1.040971905341796</v>
+        <v>1.051967133040546</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006934048098481</v>
+        <v>1.032423117985252</v>
       </c>
       <c r="D5">
-        <v>1.027320203829986</v>
+        <v>1.04102512589282</v>
       </c>
       <c r="E5">
-        <v>1.011836947044628</v>
+        <v>1.031827002915326</v>
       </c>
       <c r="F5">
-        <v>1.032280174339403</v>
+        <v>1.049757816376129</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046232207500349</v>
+        <v>1.035308254932028</v>
       </c>
       <c r="J5">
-        <v>1.025711480832616</v>
+        <v>1.036874510650812</v>
       </c>
       <c r="K5">
-        <v>1.036883088026262</v>
+        <v>1.043444947683673</v>
       </c>
       <c r="L5">
-        <v>1.021573507940192</v>
+        <v>1.034269558112291</v>
       </c>
       <c r="M5">
-        <v>1.041788774797721</v>
+        <v>1.052156451330735</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007135773378552</v>
+        <v>1.032467737399309</v>
       </c>
       <c r="D6">
-        <v>1.027471838384419</v>
+        <v>1.041059480537181</v>
       </c>
       <c r="E6">
-        <v>1.011998972178547</v>
+        <v>1.031864993811216</v>
       </c>
       <c r="F6">
-        <v>1.032454802245209</v>
+        <v>1.04979827943329</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046278421429825</v>
+        <v>1.035315769652412</v>
       </c>
       <c r="J6">
-        <v>1.025832747449454</v>
+        <v>1.03690267561095</v>
       </c>
       <c r="K6">
-        <v>1.036996690523143</v>
+        <v>1.043470559814552</v>
       </c>
       <c r="L6">
-        <v>1.021696574537198</v>
+        <v>1.034298710584372</v>
       </c>
       <c r="M6">
-        <v>1.041925373390895</v>
+        <v>1.05218823810251</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005744107765807</v>
+        <v>1.032160969645517</v>
       </c>
       <c r="D7">
-        <v>1.026425892523374</v>
+        <v>1.040823273310393</v>
       </c>
       <c r="E7">
-        <v>1.010881674787868</v>
+        <v>1.031603828791742</v>
       </c>
       <c r="F7">
-        <v>1.031250396703608</v>
+        <v>1.04952009619578</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045958733735231</v>
+        <v>1.035263997811875</v>
       </c>
       <c r="J7">
-        <v>1.024995973968756</v>
+        <v>1.036709003313208</v>
       </c>
       <c r="K7">
-        <v>1.036212610088987</v>
+        <v>1.04329441379364</v>
       </c>
       <c r="L7">
-        <v>1.02084755996809</v>
+        <v>1.034098267694888</v>
       </c>
       <c r="M7">
-        <v>1.040982857916134</v>
+        <v>1.051969662760315</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9998100453801763</v>
+        <v>1.030879826778748</v>
       </c>
       <c r="D8">
-        <v>1.021970251458261</v>
+        <v>1.039836518200812</v>
       </c>
       <c r="E8">
-        <v>1.006130041433563</v>
+        <v>1.030513893640531</v>
       </c>
       <c r="F8">
-        <v>1.026123269077899</v>
+        <v>1.048358550956346</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044574055138028</v>
+        <v>1.035045132198321</v>
       </c>
       <c r="J8">
-        <v>1.021423759252233</v>
+        <v>1.035899373860225</v>
       </c>
       <c r="K8">
-        <v>1.032860623431571</v>
+        <v>1.042557357909368</v>
       </c>
       <c r="L8">
-        <v>1.017227612760267</v>
+        <v>1.033260830174246</v>
       </c>
       <c r="M8">
-        <v>1.036960639136326</v>
+        <v>1.051055974749293</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9888768597986722</v>
+        <v>1.028626479261632</v>
       </c>
       <c r="D9">
-        <v>1.013781662621342</v>
+        <v>1.038099903751741</v>
       </c>
       <c r="E9">
-        <v>0.9974268327568507</v>
+        <v>1.028599752738654</v>
       </c>
       <c r="F9">
-        <v>1.016713304405738</v>
+        <v>1.04631643534116</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041943228858419</v>
+        <v>1.034650196283176</v>
       </c>
       <c r="J9">
-        <v>1.014828613166858</v>
+        <v>1.034472348170658</v>
       </c>
       <c r="K9">
-        <v>1.026655030283239</v>
+        <v>1.041255646555638</v>
       </c>
       <c r="L9">
-        <v>1.010561796217943</v>
+        <v>1.031786661570097</v>
       </c>
       <c r="M9">
-        <v>1.02954091727518</v>
+        <v>1.049445722806263</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9812318691073538</v>
+        <v>1.027127115180575</v>
       </c>
       <c r="D10">
-        <v>1.008074153906869</v>
+        <v>1.036943704306533</v>
       </c>
       <c r="E10">
-        <v>0.9913793966547957</v>
+        <v>1.027328081870708</v>
       </c>
       <c r="F10">
-        <v>1.010162229950385</v>
+        <v>1.044958252949471</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040052608889057</v>
+        <v>1.034380707133342</v>
       </c>
       <c r="J10">
-        <v>1.010210431399735</v>
+        <v>1.03352081485359</v>
       </c>
       <c r="K10">
-        <v>1.022299141388167</v>
+        <v>1.04038593452166</v>
       </c>
       <c r="L10">
-        <v>1.005906062926391</v>
+        <v>1.030804953030839</v>
       </c>
       <c r="M10">
-        <v>1.024350394702262</v>
+        <v>1.048372147136781</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9778283513866456</v>
+        <v>1.026478564324758</v>
       </c>
       <c r="D11">
-        <v>1.005538568186584</v>
+        <v>1.036443440318482</v>
       </c>
       <c r="E11">
-        <v>0.9886969987491687</v>
+        <v>1.026778499453484</v>
       </c>
       <c r="F11">
-        <v>1.007253532628808</v>
+        <v>1.044370928184025</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039199478215432</v>
+        <v>1.034262551757269</v>
       </c>
       <c r="J11">
-        <v>1.008153497172725</v>
+        <v>1.033108758598985</v>
       </c>
       <c r="K11">
-        <v>1.020356785656783</v>
+        <v>1.04000890074484</v>
       </c>
       <c r="L11">
-        <v>1.003835268159461</v>
+        <v>1.030380128702086</v>
       </c>
       <c r="M11">
-        <v>1.022039942206722</v>
+        <v>1.047907274216036</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9765493346908908</v>
+        <v>1.026237767138234</v>
       </c>
       <c r="D12">
-        <v>1.004586613081399</v>
+        <v>1.036257678137218</v>
       </c>
       <c r="E12">
-        <v>0.9876905342006345</v>
+        <v>1.026574520515101</v>
       </c>
       <c r="F12">
-        <v>1.00616172801048</v>
+        <v>1.044152887763824</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038877219559844</v>
+        <v>1.034218444024337</v>
       </c>
       <c r="J12">
-        <v>1.007380430439294</v>
+        <v>1.03295569803995</v>
       </c>
       <c r="K12">
-        <v>1.019626465231272</v>
+        <v>1.039868788100282</v>
       </c>
       <c r="L12">
-        <v>1.003057425951889</v>
+        <v>1.030222370356616</v>
       </c>
       <c r="M12">
-        <v>1.021171823537729</v>
+        <v>1.047734599740375</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9768243712334926</v>
+        <v>1.026289414257257</v>
       </c>
       <c r="D13">
-        <v>1.004791276967177</v>
+        <v>1.036297522103178</v>
       </c>
       <c r="E13">
-        <v>0.9879068900684608</v>
+        <v>1.026618267409103</v>
       </c>
       <c r="F13">
-        <v>1.006396448436908</v>
+        <v>1.044199652805379</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038946591202992</v>
+        <v>1.034227915210475</v>
       </c>
       <c r="J13">
-        <v>1.007546671750481</v>
+        <v>1.032988530239534</v>
       </c>
       <c r="K13">
-        <v>1.019783528256103</v>
+        <v>1.039898845686638</v>
       </c>
       <c r="L13">
-        <v>1.003224674529632</v>
+        <v>1.03025620821683</v>
       </c>
       <c r="M13">
-        <v>1.021358494293533</v>
+        <v>1.047771638981723</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9777229341745417</v>
+        <v>1.026458657838854</v>
       </c>
       <c r="D14">
-        <v>1.005460088735448</v>
+        <v>1.036428083964837</v>
       </c>
       <c r="E14">
-        <v>0.9886140132621158</v>
+        <v>1.026761635210504</v>
       </c>
       <c r="F14">
-        <v>1.007163519349589</v>
+        <v>1.04435290247666</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039172950849978</v>
+        <v>1.034258910274455</v>
       </c>
       <c r="J14">
-        <v>1.00808978204018</v>
+        <v>1.033096106652428</v>
       </c>
       <c r="K14">
-        <v>1.020296599920154</v>
+        <v>1.039997320320567</v>
       </c>
       <c r="L14">
-        <v>1.003771150600755</v>
+        <v>1.030367087519789</v>
       </c>
       <c r="M14">
-        <v>1.021968388256473</v>
+        <v>1.047893000882761</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9782745826462768</v>
+        <v>1.026562948129963</v>
       </c>
       <c r="D15">
-        <v>1.005870809063772</v>
+        <v>1.036508535181066</v>
       </c>
       <c r="E15">
-        <v>0.9890483405399506</v>
+        <v>1.026849990142725</v>
       </c>
       <c r="F15">
-        <v>1.007634611000261</v>
+        <v>1.044447340354313</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039311701361823</v>
+        <v>1.034277978276887</v>
       </c>
       <c r="J15">
-        <v>1.008423200273628</v>
+        <v>1.033162387458885</v>
       </c>
       <c r="K15">
-        <v>1.020611536232773</v>
+        <v>1.040057985141569</v>
       </c>
       <c r="L15">
-        <v>1.004106692413708</v>
+        <v>1.030435409290407</v>
       </c>
       <c r="M15">
-        <v>1.022342836091716</v>
+        <v>1.047967775993636</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9814557191651364</v>
+        <v>1.027170171834309</v>
       </c>
       <c r="D16">
-        <v>1.008241039511075</v>
+        <v>1.036976913258948</v>
       </c>
       <c r="E16">
-        <v>0.9915560308513697</v>
+        <v>1.027364578275709</v>
       </c>
       <c r="F16">
-        <v>1.010353705721597</v>
+        <v>1.044997248252352</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04010848617897</v>
+        <v>1.034388517897906</v>
       </c>
       <c r="J16">
-        <v>1.010345701399629</v>
+        <v>1.033548160987129</v>
       </c>
       <c r="K16">
-        <v>1.022426831346673</v>
+        <v>1.040410947769486</v>
       </c>
       <c r="L16">
-        <v>1.006042304396951</v>
+        <v>1.030833152824195</v>
       </c>
       <c r="M16">
-        <v>1.024502367532573</v>
+        <v>1.048402999161249</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9834256672405881</v>
+        <v>1.027551250799699</v>
       </c>
       <c r="D17">
-        <v>1.009710305620347</v>
+        <v>1.037270816606135</v>
       </c>
       <c r="E17">
-        <v>0.993111600188877</v>
+        <v>1.027687650360092</v>
       </c>
       <c r="F17">
-        <v>1.012039650065644</v>
+        <v>1.045342399998524</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040598928473755</v>
+        <v>1.034457464669391</v>
       </c>
       <c r="J17">
-        <v>1.01153601775524</v>
+        <v>1.03379013751062</v>
       </c>
       <c r="K17">
-        <v>1.023550193499257</v>
+        <v>1.040632234077622</v>
       </c>
       <c r="L17">
-        <v>1.007241495708262</v>
+        <v>1.031082717650552</v>
       </c>
       <c r="M17">
-        <v>1.025839823104536</v>
+        <v>1.04867600194962</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.984565770336355</v>
+        <v>1.027773593627207</v>
       </c>
       <c r="D18">
-        <v>1.01056114374966</v>
+        <v>1.037442281837406</v>
       </c>
       <c r="E18">
-        <v>0.9940128164631556</v>
+        <v>1.027876194978369</v>
       </c>
       <c r="F18">
-        <v>1.013016122049414</v>
+        <v>1.045543796065421</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040881681715647</v>
+        <v>1.034497538789297</v>
       </c>
       <c r="J18">
-        <v>1.012224817845532</v>
+        <v>1.033931274784418</v>
       </c>
       <c r="K18">
-        <v>1.024200034635865</v>
+        <v>1.040761263853301</v>
       </c>
       <c r="L18">
-        <v>1.007935703030085</v>
+        <v>1.031228309800391</v>
       </c>
       <c r="M18">
-        <v>1.026613899946849</v>
+        <v>1.048835239048663</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9849530239496959</v>
+        <v>1.027849417942646</v>
       </c>
       <c r="D19">
-        <v>1.010850226813396</v>
+        <v>1.037500753180103</v>
       </c>
       <c r="E19">
-        <v>0.9943190847619177</v>
+        <v>1.027940501106425</v>
       </c>
       <c r="F19">
-        <v>1.013347918020613</v>
+        <v>1.045612479580635</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040977536737712</v>
+        <v>1.034511179035249</v>
       </c>
       <c r="J19">
-        <v>1.012458762077936</v>
+        <v>1.033979398320029</v>
       </c>
       <c r="K19">
-        <v>1.024420709820321</v>
+        <v>1.040805252384992</v>
       </c>
       <c r="L19">
-        <v>1.008171529745915</v>
+        <v>1.031277957207392</v>
       </c>
       <c r="M19">
-        <v>1.026876829413227</v>
+        <v>1.048889534611862</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9832152401615335</v>
+        <v>1.027510357809829</v>
       </c>
       <c r="D20">
-        <v>1.009553307796065</v>
+        <v>1.037239279785612</v>
       </c>
       <c r="E20">
-        <v>0.9929453390541885</v>
+        <v>1.027652977209221</v>
       </c>
       <c r="F20">
-        <v>1.011859482954596</v>
+        <v>1.045305360726083</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040546652699019</v>
+        <v>1.03445008195176</v>
       </c>
       <c r="J20">
-        <v>1.011408879090603</v>
+        <v>1.033764176079189</v>
       </c>
       <c r="K20">
-        <v>1.023430228382256</v>
+        <v>1.04060849656908</v>
       </c>
       <c r="L20">
-        <v>1.007113380904357</v>
+        <v>1.03105593909203</v>
       </c>
       <c r="M20">
-        <v>1.025696954584831</v>
+        <v>1.048646711409312</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9774587449995753</v>
+        <v>1.026408816959709</v>
       </c>
       <c r="D21">
-        <v>1.005263423881395</v>
+        <v>1.036389635135028</v>
       </c>
       <c r="E21">
-        <v>0.9884060662926167</v>
+        <v>1.026719412527169</v>
       </c>
       <c r="F21">
-        <v>1.006937955066455</v>
+        <v>1.044307770995501</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039106443330015</v>
+        <v>1.034249789057672</v>
       </c>
       <c r="J21">
-        <v>1.007930102477566</v>
+        <v>1.033064428197647</v>
       </c>
       <c r="K21">
-        <v>1.020145760526389</v>
+        <v>1.0399683237957</v>
       </c>
       <c r="L21">
-        <v>1.003610469498612</v>
+        <v>1.030334435207677</v>
       </c>
       <c r="M21">
-        <v>1.021789067207993</v>
+        <v>1.04785726281772</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9737533495364404</v>
+        <v>1.025716833580774</v>
       </c>
       <c r="D22">
-        <v>1.00250735746294</v>
+        <v>1.035855766857162</v>
       </c>
       <c r="E22">
-        <v>0.9854933145560233</v>
+        <v>1.02613337225249</v>
       </c>
       <c r="F22">
-        <v>1.003777419178957</v>
+        <v>1.043681230994537</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038169766714865</v>
+        <v>1.03412258687833</v>
       </c>
       <c r="J22">
-        <v>1.005690378183934</v>
+        <v>1.032624443229522</v>
       </c>
       <c r="K22">
-        <v>1.018029306220378</v>
+        <v>1.039565443226819</v>
       </c>
       <c r="L22">
-        <v>1.001357735467881</v>
+        <v>1.029881030871608</v>
       </c>
       <c r="M22">
-        <v>1.019274414242159</v>
+        <v>1.047360905879432</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9757260889301651</v>
+        <v>1.026083610021508</v>
       </c>
       <c r="D23">
-        <v>1.003974147484294</v>
+        <v>1.036138748135349</v>
       </c>
       <c r="E23">
-        <v>0.9870431674110446</v>
+        <v>1.026443954817898</v>
       </c>
       <c r="F23">
-        <v>1.005459349417062</v>
+        <v>1.044013306380636</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038669336428978</v>
+        <v>1.034190139381379</v>
       </c>
       <c r="J23">
-        <v>1.006882824844928</v>
+        <v>1.032857689722368</v>
       </c>
       <c r="K23">
-        <v>1.019156288092267</v>
+        <v>1.039779053385268</v>
       </c>
       <c r="L23">
-        <v>1.00255686918539</v>
+        <v>1.030121366603583</v>
       </c>
       <c r="M23">
-        <v>1.020613102069758</v>
+        <v>1.047624033626545</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9833103506521782</v>
+        <v>1.027528835388089</v>
       </c>
       <c r="D24">
-        <v>1.009624267356278</v>
+        <v>1.03725352980504</v>
       </c>
       <c r="E24">
-        <v>0.9930204841828797</v>
+        <v>1.027668644198147</v>
       </c>
       <c r="F24">
-        <v>1.011940914032782</v>
+        <v>1.045322096947687</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040570284097297</v>
+        <v>1.03445341832091</v>
       </c>
       <c r="J24">
-        <v>1.011466344518962</v>
+        <v>1.033775906943559</v>
       </c>
       <c r="K24">
-        <v>1.023484452104447</v>
+        <v>1.040619222659702</v>
       </c>
       <c r="L24">
-        <v>1.007171286696314</v>
+        <v>1.031068039092149</v>
       </c>
       <c r="M24">
-        <v>1.025761529346183</v>
+        <v>1.048659946546282</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9917633690186123</v>
+        <v>1.029208521893179</v>
       </c>
       <c r="D25">
-        <v>1.015940723434979</v>
+        <v>1.038548594141008</v>
       </c>
       <c r="E25">
-        <v>0.9997182619351366</v>
+        <v>1.029093830084578</v>
       </c>
       <c r="F25">
-        <v>1.019193003810047</v>
+        <v>1.04684380840346</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042646810402265</v>
+        <v>1.034753391558863</v>
       </c>
       <c r="J25">
-        <v>1.016571144101901</v>
+        <v>1.034841304845954</v>
       </c>
       <c r="K25">
-        <v>1.028296519316352</v>
+        <v>1.041592510355074</v>
       </c>
       <c r="L25">
-        <v>1.012320953099129</v>
+        <v>1.032167585182034</v>
       </c>
       <c r="M25">
-        <v>1.031500504035639</v>
+        <v>1.049862029875621</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_154/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_154/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03055029072378</v>
+        <v>0.998251264907309</v>
       </c>
       <c r="D2">
-        <v>1.039582631608319</v>
+        <v>1.020801057808652</v>
       </c>
       <c r="E2">
-        <v>1.030233735645875</v>
+        <v>1.004885172497494</v>
       </c>
       <c r="F2">
-        <v>1.048059835917407</v>
+        <v>1.024778747316787</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034988157074656</v>
+        <v>1.044204920708889</v>
       </c>
       <c r="J2">
-        <v>1.035690915942963</v>
+        <v>1.020484406442657</v>
       </c>
       <c r="K2">
-        <v>1.04236740876327</v>
+        <v>1.031978011883522</v>
       </c>
       <c r="L2">
-        <v>1.033045339321515</v>
+        <v>1.016276866087148</v>
       </c>
       <c r="M2">
-        <v>1.050820736706897</v>
+        <v>1.035903339644771</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031525713853264</v>
+        <v>1.002826530634981</v>
       </c>
       <c r="D3">
-        <v>1.040334047593937</v>
+        <v>1.024234309476352</v>
       </c>
       <c r="E3">
-        <v>1.031063231416374</v>
+        <v>1.008542944698348</v>
       </c>
       <c r="F3">
-        <v>1.04894409824415</v>
+        <v>1.028727843380044</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035156002880944</v>
+        <v>1.045282148964179</v>
       </c>
       <c r="J3">
-        <v>1.036307707967147</v>
+        <v>1.023240437034856</v>
       </c>
       <c r="K3">
-        <v>1.042929228036171</v>
+        <v>1.034566220639084</v>
       </c>
       <c r="L3">
-        <v>1.033683090194355</v>
+        <v>1.019067671552789</v>
       </c>
       <c r="M3">
-        <v>1.05151678109444</v>
+        <v>1.039005881592478</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032157419879803</v>
+        <v>1.005727938717873</v>
       </c>
       <c r="D4">
-        <v>1.040820539874346</v>
+        <v>1.026413742342642</v>
       </c>
       <c r="E4">
-        <v>1.031600807132731</v>
+        <v>1.010868700121684</v>
       </c>
       <c r="F4">
-        <v>1.049516877315329</v>
+        <v>1.03123640774097</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035263397277794</v>
+        <v>1.04595500765182</v>
       </c>
       <c r="J4">
-        <v>1.036706761791015</v>
+        <v>1.024986249529967</v>
       </c>
       <c r="K4">
-        <v>1.043292374736066</v>
+        <v>1.036203495410791</v>
       </c>
       <c r="L4">
-        <v>1.034095948083048</v>
+        <v>1.020837695718456</v>
       </c>
       <c r="M4">
-        <v>1.051967133040546</v>
+        <v>1.040971905341795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032423117985252</v>
+        <v>1.006934048098481</v>
       </c>
       <c r="D5">
-        <v>1.04102512589282</v>
+        <v>1.027320203829986</v>
       </c>
       <c r="E5">
-        <v>1.031827002915326</v>
+        <v>1.011836947044628</v>
       </c>
       <c r="F5">
-        <v>1.049757816376129</v>
+        <v>1.032280174339403</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035308254932028</v>
+        <v>1.046232207500349</v>
       </c>
       <c r="J5">
-        <v>1.036874510650812</v>
+        <v>1.025711480832616</v>
       </c>
       <c r="K5">
-        <v>1.043444947683673</v>
+        <v>1.036883088026262</v>
       </c>
       <c r="L5">
-        <v>1.034269558112291</v>
+        <v>1.021573507940192</v>
       </c>
       <c r="M5">
-        <v>1.052156451330735</v>
+        <v>1.041788774797721</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032467737399309</v>
+        <v>1.007135773378553</v>
       </c>
       <c r="D6">
-        <v>1.041059480537181</v>
+        <v>1.027471838384419</v>
       </c>
       <c r="E6">
-        <v>1.031864993811216</v>
+        <v>1.011998972178547</v>
       </c>
       <c r="F6">
-        <v>1.04979827943329</v>
+        <v>1.03245480224521</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035315769652412</v>
+        <v>1.046278421429825</v>
       </c>
       <c r="J6">
-        <v>1.03690267561095</v>
+        <v>1.025832747449455</v>
       </c>
       <c r="K6">
-        <v>1.043470559814552</v>
+        <v>1.036996690523143</v>
       </c>
       <c r="L6">
-        <v>1.034298710584372</v>
+        <v>1.021696574537199</v>
       </c>
       <c r="M6">
-        <v>1.05218823810251</v>
+        <v>1.041925373390896</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032160969645517</v>
+        <v>1.005744107765807</v>
       </c>
       <c r="D7">
-        <v>1.040823273310393</v>
+        <v>1.026425892523374</v>
       </c>
       <c r="E7">
-        <v>1.031603828791742</v>
+        <v>1.010881674787868</v>
       </c>
       <c r="F7">
-        <v>1.04952009619578</v>
+        <v>1.031250396703609</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035263997811875</v>
+        <v>1.045958733735231</v>
       </c>
       <c r="J7">
-        <v>1.036709003313208</v>
+        <v>1.024995973968757</v>
       </c>
       <c r="K7">
-        <v>1.04329441379364</v>
+        <v>1.036212610088988</v>
       </c>
       <c r="L7">
-        <v>1.034098267694888</v>
+        <v>1.02084755996809</v>
       </c>
       <c r="M7">
-        <v>1.051969662760315</v>
+        <v>1.040982857916134</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.030879826778748</v>
+        <v>0.9998100453801761</v>
       </c>
       <c r="D8">
-        <v>1.039836518200812</v>
+        <v>1.021970251458261</v>
       </c>
       <c r="E8">
-        <v>1.030513893640531</v>
+        <v>1.006130041433563</v>
       </c>
       <c r="F8">
-        <v>1.048358550956346</v>
+        <v>1.026123269077899</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035045132198321</v>
+        <v>1.044574055138028</v>
       </c>
       <c r="J8">
-        <v>1.035899373860225</v>
+        <v>1.021423759252233</v>
       </c>
       <c r="K8">
-        <v>1.042557357909368</v>
+        <v>1.032860623431571</v>
       </c>
       <c r="L8">
-        <v>1.033260830174246</v>
+        <v>1.017227612760266</v>
       </c>
       <c r="M8">
-        <v>1.051055974749293</v>
+        <v>1.036960639136326</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.028626479261632</v>
+        <v>0.9888768597986713</v>
       </c>
       <c r="D9">
-        <v>1.038099903751741</v>
+        <v>1.013781662621341</v>
       </c>
       <c r="E9">
-        <v>1.028599752738654</v>
+        <v>0.99742683275685</v>
       </c>
       <c r="F9">
-        <v>1.04631643534116</v>
+        <v>1.016713304405738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034650196283176</v>
+        <v>1.041943228858419</v>
       </c>
       <c r="J9">
-        <v>1.034472348170658</v>
+        <v>1.014828613166858</v>
       </c>
       <c r="K9">
-        <v>1.041255646555638</v>
+        <v>1.026655030283238</v>
       </c>
       <c r="L9">
-        <v>1.031786661570097</v>
+        <v>1.010561796217942</v>
       </c>
       <c r="M9">
-        <v>1.049445722806263</v>
+        <v>1.02954091727518</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027127115180575</v>
+        <v>0.981231869107354</v>
       </c>
       <c r="D10">
-        <v>1.036943704306533</v>
+        <v>1.00807415390687</v>
       </c>
       <c r="E10">
-        <v>1.027328081870708</v>
+        <v>0.9913793966547956</v>
       </c>
       <c r="F10">
-        <v>1.044958252949471</v>
+        <v>1.010162229950385</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034380707133342</v>
+        <v>1.040052608889057</v>
       </c>
       <c r="J10">
-        <v>1.03352081485359</v>
+        <v>1.010210431399735</v>
       </c>
       <c r="K10">
-        <v>1.04038593452166</v>
+        <v>1.022299141388168</v>
       </c>
       <c r="L10">
-        <v>1.030804953030839</v>
+        <v>1.005906062926391</v>
       </c>
       <c r="M10">
-        <v>1.048372147136781</v>
+        <v>1.024350394702262</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026478564324758</v>
+        <v>0.9778283513866454</v>
       </c>
       <c r="D11">
-        <v>1.036443440318482</v>
+        <v>1.005538568186584</v>
       </c>
       <c r="E11">
-        <v>1.026778499453484</v>
+        <v>0.9886969987491686</v>
       </c>
       <c r="F11">
-        <v>1.044370928184025</v>
+        <v>1.007253532628809</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034262551757269</v>
+        <v>1.039199478215432</v>
       </c>
       <c r="J11">
-        <v>1.033108758598985</v>
+        <v>1.008153497172725</v>
       </c>
       <c r="K11">
-        <v>1.04000890074484</v>
+        <v>1.020356785656782</v>
       </c>
       <c r="L11">
-        <v>1.030380128702086</v>
+        <v>1.003835268159461</v>
       </c>
       <c r="M11">
-        <v>1.047907274216036</v>
+        <v>1.022039942206722</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026237767138234</v>
+        <v>0.9765493346908911</v>
       </c>
       <c r="D12">
-        <v>1.036257678137218</v>
+        <v>1.004586613081399</v>
       </c>
       <c r="E12">
-        <v>1.026574520515101</v>
+        <v>0.9876905342006348</v>
       </c>
       <c r="F12">
-        <v>1.044152887763824</v>
+        <v>1.00616172801048</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034218444024337</v>
+        <v>1.038877219559844</v>
       </c>
       <c r="J12">
-        <v>1.03295569803995</v>
+        <v>1.007380430439294</v>
       </c>
       <c r="K12">
-        <v>1.039868788100282</v>
+        <v>1.019626465231272</v>
       </c>
       <c r="L12">
-        <v>1.030222370356616</v>
+        <v>1.003057425951889</v>
       </c>
       <c r="M12">
-        <v>1.047734599740375</v>
+        <v>1.021171823537729</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026289414257257</v>
+        <v>0.9768243712334914</v>
       </c>
       <c r="D13">
-        <v>1.036297522103178</v>
+        <v>1.004791276967176</v>
       </c>
       <c r="E13">
-        <v>1.026618267409103</v>
+        <v>0.9879068900684594</v>
       </c>
       <c r="F13">
-        <v>1.044199652805379</v>
+        <v>1.006396448436906</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034227915210475</v>
+        <v>1.038946591202992</v>
       </c>
       <c r="J13">
-        <v>1.032988530239534</v>
+        <v>1.00754667175048</v>
       </c>
       <c r="K13">
-        <v>1.039898845686638</v>
+        <v>1.019783528256101</v>
       </c>
       <c r="L13">
-        <v>1.03025620821683</v>
+        <v>1.003224674529631</v>
       </c>
       <c r="M13">
-        <v>1.047771638981723</v>
+        <v>1.021358494293532</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.026458657838854</v>
+        <v>0.977722934174542</v>
       </c>
       <c r="D14">
-        <v>1.036428083964837</v>
+        <v>1.005460088735448</v>
       </c>
       <c r="E14">
-        <v>1.026761635210504</v>
+        <v>0.9886140132621161</v>
       </c>
       <c r="F14">
-        <v>1.04435290247666</v>
+        <v>1.007163519349589</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034258910274455</v>
+        <v>1.039172950849979</v>
       </c>
       <c r="J14">
-        <v>1.033096106652428</v>
+        <v>1.00808978204018</v>
       </c>
       <c r="K14">
-        <v>1.039997320320567</v>
+        <v>1.020296599920154</v>
       </c>
       <c r="L14">
-        <v>1.030367087519789</v>
+        <v>1.003771150600755</v>
       </c>
       <c r="M14">
-        <v>1.047893000882761</v>
+        <v>1.021968388256473</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026562948129963</v>
+        <v>0.9782745826462766</v>
       </c>
       <c r="D15">
-        <v>1.036508535181066</v>
+        <v>1.005870809063772</v>
       </c>
       <c r="E15">
-        <v>1.026849990142725</v>
+        <v>0.9890483405399506</v>
       </c>
       <c r="F15">
-        <v>1.044447340354313</v>
+        <v>1.007634611000261</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034277978276887</v>
+        <v>1.039311701361823</v>
       </c>
       <c r="J15">
-        <v>1.033162387458885</v>
+        <v>1.008423200273628</v>
       </c>
       <c r="K15">
-        <v>1.040057985141569</v>
+        <v>1.020611536232773</v>
       </c>
       <c r="L15">
-        <v>1.030435409290407</v>
+        <v>1.004106692413708</v>
       </c>
       <c r="M15">
-        <v>1.047967775993636</v>
+        <v>1.022342836091716</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027170171834309</v>
+        <v>0.9814557191651369</v>
       </c>
       <c r="D16">
-        <v>1.036976913258948</v>
+        <v>1.008241039511076</v>
       </c>
       <c r="E16">
-        <v>1.027364578275709</v>
+        <v>0.9915560308513699</v>
       </c>
       <c r="F16">
-        <v>1.044997248252352</v>
+        <v>1.010353705721597</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034388517897906</v>
+        <v>1.04010848617897</v>
       </c>
       <c r="J16">
-        <v>1.033548160987129</v>
+        <v>1.010345701399629</v>
       </c>
       <c r="K16">
-        <v>1.040410947769486</v>
+        <v>1.022426831346673</v>
       </c>
       <c r="L16">
-        <v>1.030833152824195</v>
+        <v>1.006042304396951</v>
       </c>
       <c r="M16">
-        <v>1.048402999161249</v>
+        <v>1.024502367532574</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.027551250799699</v>
+        <v>0.9834256672405881</v>
       </c>
       <c r="D17">
-        <v>1.037270816606135</v>
+        <v>1.009710305620346</v>
       </c>
       <c r="E17">
-        <v>1.027687650360092</v>
+        <v>0.9931116001888769</v>
       </c>
       <c r="F17">
-        <v>1.045342399998524</v>
+        <v>1.012039650065644</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034457464669391</v>
+        <v>1.040598928473755</v>
       </c>
       <c r="J17">
-        <v>1.03379013751062</v>
+        <v>1.01153601775524</v>
       </c>
       <c r="K17">
-        <v>1.040632234077622</v>
+        <v>1.023550193499257</v>
       </c>
       <c r="L17">
-        <v>1.031082717650552</v>
+        <v>1.007241495708262</v>
       </c>
       <c r="M17">
-        <v>1.04867600194962</v>
+        <v>1.025839823104536</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027773593627207</v>
+        <v>0.9845657703363551</v>
       </c>
       <c r="D18">
-        <v>1.037442281837406</v>
+        <v>1.01056114374966</v>
       </c>
       <c r="E18">
-        <v>1.027876194978369</v>
+        <v>0.9940128164631558</v>
       </c>
       <c r="F18">
-        <v>1.045543796065421</v>
+        <v>1.013016122049415</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034497538789297</v>
+        <v>1.040881681715648</v>
       </c>
       <c r="J18">
-        <v>1.033931274784418</v>
+        <v>1.012224817845532</v>
       </c>
       <c r="K18">
-        <v>1.040761263853301</v>
+        <v>1.024200034635865</v>
       </c>
       <c r="L18">
-        <v>1.031228309800391</v>
+        <v>1.007935703030085</v>
       </c>
       <c r="M18">
-        <v>1.048835239048663</v>
+        <v>1.026613899946849</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027849417942646</v>
+        <v>0.9849530239496965</v>
       </c>
       <c r="D19">
-        <v>1.037500753180103</v>
+        <v>1.010850226813397</v>
       </c>
       <c r="E19">
-        <v>1.027940501106425</v>
+        <v>0.9943190847619179</v>
       </c>
       <c r="F19">
-        <v>1.045612479580635</v>
+        <v>1.013347918020614</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034511179035249</v>
+        <v>1.040977536737713</v>
       </c>
       <c r="J19">
-        <v>1.033979398320029</v>
+        <v>1.012458762077936</v>
       </c>
       <c r="K19">
-        <v>1.040805252384992</v>
+        <v>1.024420709820322</v>
       </c>
       <c r="L19">
-        <v>1.031277957207392</v>
+        <v>1.008171529745915</v>
       </c>
       <c r="M19">
-        <v>1.048889534611862</v>
+        <v>1.026876829413227</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.027510357809829</v>
+        <v>0.9832152401615332</v>
       </c>
       <c r="D20">
-        <v>1.037239279785612</v>
+        <v>1.009553307796065</v>
       </c>
       <c r="E20">
-        <v>1.027652977209221</v>
+        <v>0.9929453390541884</v>
       </c>
       <c r="F20">
-        <v>1.045305360726083</v>
+        <v>1.011859482954596</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03445008195176</v>
+        <v>1.04054665269902</v>
       </c>
       <c r="J20">
-        <v>1.033764176079189</v>
+        <v>1.011408879090602</v>
       </c>
       <c r="K20">
-        <v>1.04060849656908</v>
+        <v>1.023430228382256</v>
       </c>
       <c r="L20">
-        <v>1.03105593909203</v>
+        <v>1.007113380904357</v>
       </c>
       <c r="M20">
-        <v>1.048646711409312</v>
+        <v>1.025696954584831</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026408816959709</v>
+        <v>0.977458744999575</v>
       </c>
       <c r="D21">
-        <v>1.036389635135028</v>
+        <v>1.005263423881395</v>
       </c>
       <c r="E21">
-        <v>1.026719412527169</v>
+        <v>0.9884060662926164</v>
       </c>
       <c r="F21">
-        <v>1.044307770995501</v>
+        <v>1.006937955066454</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034249789057672</v>
+        <v>1.039106443330015</v>
       </c>
       <c r="J21">
-        <v>1.033064428197647</v>
+        <v>1.007930102477566</v>
       </c>
       <c r="K21">
-        <v>1.0399683237957</v>
+        <v>1.020145760526389</v>
       </c>
       <c r="L21">
-        <v>1.030334435207677</v>
+        <v>1.003610469498612</v>
       </c>
       <c r="M21">
-        <v>1.04785726281772</v>
+        <v>1.021789067207993</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025716833580774</v>
+        <v>0.9737533495364409</v>
       </c>
       <c r="D22">
-        <v>1.035855766857162</v>
+        <v>1.00250735746294</v>
       </c>
       <c r="E22">
-        <v>1.02613337225249</v>
+        <v>0.9854933145560235</v>
       </c>
       <c r="F22">
-        <v>1.043681230994537</v>
+        <v>1.003777419178958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03412258687833</v>
+        <v>1.038169766714865</v>
       </c>
       <c r="J22">
-        <v>1.032624443229522</v>
+        <v>1.005690378183934</v>
       </c>
       <c r="K22">
-        <v>1.039565443226819</v>
+        <v>1.018029306220378</v>
       </c>
       <c r="L22">
-        <v>1.029881030871608</v>
+        <v>1.001357735467882</v>
       </c>
       <c r="M22">
-        <v>1.047360905879432</v>
+        <v>1.019274414242159</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026083610021508</v>
+        <v>0.9757260889301648</v>
       </c>
       <c r="D23">
-        <v>1.036138748135349</v>
+        <v>1.003974147484293</v>
       </c>
       <c r="E23">
-        <v>1.026443954817898</v>
+        <v>0.9870431674110443</v>
       </c>
       <c r="F23">
-        <v>1.044013306380636</v>
+        <v>1.005459349417062</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034190139381379</v>
+        <v>1.038669336428978</v>
       </c>
       <c r="J23">
-        <v>1.032857689722368</v>
+        <v>1.006882824844928</v>
       </c>
       <c r="K23">
-        <v>1.039779053385268</v>
+        <v>1.019156288092267</v>
       </c>
       <c r="L23">
-        <v>1.030121366603583</v>
+        <v>1.00255686918539</v>
       </c>
       <c r="M23">
-        <v>1.047624033626545</v>
+        <v>1.020613102069758</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.027528835388089</v>
+        <v>0.9833103506521773</v>
       </c>
       <c r="D24">
-        <v>1.03725352980504</v>
+        <v>1.009624267356277</v>
       </c>
       <c r="E24">
-        <v>1.027668644198147</v>
+        <v>0.993020484182879</v>
       </c>
       <c r="F24">
-        <v>1.045322096947687</v>
+        <v>1.011940914032781</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03445341832091</v>
+        <v>1.040570284097296</v>
       </c>
       <c r="J24">
-        <v>1.033775906943559</v>
+        <v>1.011466344518961</v>
       </c>
       <c r="K24">
-        <v>1.040619222659702</v>
+        <v>1.023484452104447</v>
       </c>
       <c r="L24">
-        <v>1.031068039092149</v>
+        <v>1.007171286696313</v>
       </c>
       <c r="M24">
-        <v>1.048659946546282</v>
+        <v>1.025761529346181</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029208521893179</v>
+        <v>0.9917633690186124</v>
       </c>
       <c r="D25">
-        <v>1.038548594141008</v>
+        <v>1.015940723434979</v>
       </c>
       <c r="E25">
-        <v>1.029093830084578</v>
+        <v>0.9997182619351362</v>
       </c>
       <c r="F25">
-        <v>1.04684380840346</v>
+        <v>1.019193003810047</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034753391558863</v>
+        <v>1.042646810402265</v>
       </c>
       <c r="J25">
-        <v>1.034841304845954</v>
+        <v>1.016571144101901</v>
       </c>
       <c r="K25">
-        <v>1.041592510355074</v>
+        <v>1.028296519316352</v>
       </c>
       <c r="L25">
-        <v>1.032167585182034</v>
+        <v>1.012320953099129</v>
       </c>
       <c r="M25">
-        <v>1.049862029875621</v>
+        <v>1.031500504035639</v>
       </c>
     </row>
   </sheetData>
